--- a/Recycling/Met_rec/metrec_Min_full.xlsx
+++ b/Recycling/Met_rec/metrec_Min_full.xlsx
@@ -111,6 +111,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="4">
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +495,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -492,7 +533,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,11 +545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.1828148245318809</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.834652134572051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4556982737120198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.808831994078121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8.020794917900973</v>
       </c>
     </row>
   </sheetData>
@@ -518,7 +583,7 @@
 
 <file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,11 +595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14977.82524778586</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31938.21905193423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40209.69642936406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24639.67580583885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>268329.9241975261</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +633,7 @@
 
 <file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,11 +645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14964.38857506346</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>32046.66790147921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40041.27208904678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24744.70876959465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>271859.4693468667</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +683,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,11 +695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.3726710238782989</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13.77042529884091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.8344598116996056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.211037934462871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>13.79565557657003</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +733,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,11 +745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.7207517820464455</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25.57196596508845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.363982420830419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.157508848110699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>20.95668708766048</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +783,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -634,11 +795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.343479585288834</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>44.76284009652021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.02803808353138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.647358475704817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28.3977320790765</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +833,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,11 +845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.440363836312863</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>75.63980495179622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.881392881362686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10.86276530276123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.28722565311957</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +883,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -686,11 +895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.332570507641992</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>125.644965760976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.282657979852734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15.43362261710204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>42.497627043824</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +933,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -712,11 +945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7.483522346493532</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>206.1557715032545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7.263985541089201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22.4625704710637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>53.27471288762835</v>
       </c>
     </row>
   </sheetData>
@@ -726,7 +983,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -738,11 +995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12.50022732444244</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>331.4642535603247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.1273526260891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.44495318767951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>73.03116504897754</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -764,11 +1045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>20.12389884058238</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>513.1985948956733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>29.16315485398432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>50.42764101223251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>109.193454048252</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,11 +1095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>31.21237144277829</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>747.6031760592056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>59.09510245836376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75.96742005407138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>170.4968449899075</v>
       </c>
     </row>
   </sheetData>
@@ -804,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -816,10 +1145,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>0</v>
       </c>
     </row>
@@ -830,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -842,11 +1195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>46.70926954603598</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1001.253786843259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>112.7720539505496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>111.9082776314091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>264.3260484447544</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,11 +1245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>67.59656109578081</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1209.578906388438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>199.7583969062862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>157.1230899289389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>392.9203805386458</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,11 +1295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>94.82958288489904</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1299.52473264379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>327.6654108957711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>206.7294315830593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>551.4479533276682</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +1333,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -920,11 +1345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>129.2520139797121</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1235.111140590275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>499.0170433349136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>255.189452719065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>729.5829199386408</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,11 +1395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>171.485623459733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1060.261857822864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>709.4431583681854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>300.6858040744319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>913.77833376903</v>
       </c>
     </row>
   </sheetData>
@@ -960,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -972,11 +1445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>221.8007844443657</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>885.8767826139931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>947.5997915137103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>344.8430711851918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1087.191613698681</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,11 +1495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>280.0080778636932</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>811.0714289884138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1195.818906052467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>388.4966995689238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1234.957247781608</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1024,11 +1545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>345.420364114404</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>866.4993287051268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1432.632368693736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>432.9068249142439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1367.959219105438</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1583,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,11 +1595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>416.857493460161</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1040.593805792583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1646.291202798648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>491.1908717020625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1550.437209889576</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,11 +1645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>492.7876622463402</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1333.199301709475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1882.052484519071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>605.4292278954471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1913.80150831332</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,11 +1695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4.787377942402196E-06</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6.958422517845591E-05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.193530301843359E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.487267429540019E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.000105480072879775</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1128,11 +1745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>571.7431054253527</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1780.284618848824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2312.113845039332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>858.7586695135657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2681.465252380256</v>
       </c>
     </row>
   </sheetData>
@@ -1142,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1154,11 +1795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>652.9028299058073</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2459.89336238755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3243.080237114858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1369.931799474818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4206.767451318497</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,11 +1845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>736.8083922308537</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3492.823617709484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5024.191833610054</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2271.06158246181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6965.506122916954</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,11 +1895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>826.203011631202</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5013.994033055031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7929.736458799685</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3668.988790020704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11432.74037302433</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1933,7 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,11 +1945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>926.9182909017557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7102.593900425608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12074.34019174818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5586.596522938997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>17854.79785557006</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1983,7 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1258,11 +1995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1048.661985547506</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9720.234259421344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>17360.77899793943</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7921.174614474159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>26071.27813211506</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1284,11 +2045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1205.514894626002</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>12704.99001997481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23453.76359667518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10469.81706655823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35521.6600439217</v>
       </c>
     </row>
   </sheetData>
@@ -1298,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1310,11 +2095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1415.912635220351</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>15768.36357100285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>29719.54412289865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12970.31091759004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>45283.41376200043</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1336,11 +2145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1701.914017716018</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>18479.38648735985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>35207.36047376482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15096.67458770602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>54088.8450379182</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +2183,7 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,11 +2195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2087.574078534515</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20449.18476298396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>39100.36504491781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16572.63174080974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>60929.19656049106</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2233,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1388,11 +2245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0001380680461736849</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.002923730427793454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.0001440675075980786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.001054813049284373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.004482998594599986</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +2283,7 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1414,11 +2295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2596.380249574339</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>21688.3431588175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41467.80496305467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17434.06123034517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>66093.21833644385</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +2333,7 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1440,11 +2345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3248.15323313347</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>22586.48552356508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43174.57072031718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18016.61455336543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>70918.04090277509</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +2383,7 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1466,11 +2395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4055.81844456266</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23475.49746179159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44936.01849110601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18613.77055782254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>76231.7726633784</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1492,11 +2445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>5022.407434496071</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24397.35338290818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>46827.5032605349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19285.82006914789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>81643.45184128673</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1518,11 +2495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>6138.593032974543</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25172.51491260658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>48452.16280296376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19892.24802008996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>86133.31108246677</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,11 +2545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>7381.003791226382</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25519.448322504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>49224.81647876052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20169.49537109552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>88854.95742564305</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +2583,7 @@
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1570,11 +2595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8711.604857820774</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25241.08574692778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>48750.52697515475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19902.70590550888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89602.2426112767</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +2633,7 @@
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1596,11 +2645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10078.45085847201</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24462.5227433552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>47272.40358825854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19164.71673186069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89013.84481224007</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +2683,7 @@
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1622,11 +2695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11418.12368571742</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23661.85327837144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45725.71653834736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18357.46301882052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>88472.63222182805</v>
       </c>
     </row>
   </sheetData>
@@ -1636,7 +2733,7 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1648,11 +2745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12660.06618217442</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23292.97206965682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45002.55459418349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17880.66079100589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>89206.35724026637</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +2783,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1674,11 +2795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.0009747843971849401</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.02569905402516182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.001586471590158277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.009561577662248397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.04099669439168251</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +2833,7 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1700,11 +2845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13732.72763926993</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23331.22737136237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45055.3050697803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17732.60771021956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>91149.93543226554</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1726,11 +2895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14570.98160889812</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23388.31354359668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>45116.3310600289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17600.9028878311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>93255.25572719729</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +2933,7 @@
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,11 +2945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15123.8021720639</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23258.63793695059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44766.91840529808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17324.68196292922</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>94949.39035392395</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,11 +2995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15360.88711687987</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23093.17342175754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44267.24815050463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17041.13457775006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>96605.01850845787</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +3033,7 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1804,11 +3045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>15276.9576708198</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23111.95267504787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43983.95250511911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>16937.18754976517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>98773.35217617459</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +3083,7 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1830,11 +3095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14892.89155935834</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23346.11641802971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43904.92796451703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17028.16742675544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>101501.5864952669</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1856,11 +3145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14253.54846864098</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23661.62328954472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43747.4674156856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17186.66160696397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>104431.0528491685</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +3183,7 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1882,11 +3195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13422.87842468013</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23934.42167476443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43372.76260779587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17308.24148102141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>107295.010231999</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +3233,7 @@
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1908,11 +3245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12477.38866052964</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24120.53379757587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42919.71754702543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17380.53698336743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>110086.0501449124</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +3283,7 @@
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,11 +3295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11499.08693823733</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24235.80536429628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42628.45712078288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17458.27181997896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>112977.3900258262</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +3333,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1960,11 +3345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.004003462522046547</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1217577890926191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.008866528710908816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.04562511638427667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.1986494954870701</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +3383,7 @@
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,11 +3395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10568.63478495485</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24348.74276750739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42659.87205070187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17635.6325551292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>116288.6049673061</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +3433,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2012,11 +3445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9758.994076805033</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24534.48307890692</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43011.43888066061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17981.92290640761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>120276.1173039093</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +3483,7 @@
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2038,11 +3495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9129.653906010686</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>24801.25778864703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43522.81461203565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18459.46096373278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>124800.915229651</v>
       </c>
     </row>
   </sheetData>
@@ -2052,7 +3533,7 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2064,11 +3545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8721.719297930405</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25096.97858538488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43966.14274304757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18934.0934664359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>129350.7449739028</v>
       </c>
     </row>
   </sheetData>
@@ -2078,7 +3583,7 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2090,11 +3595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8554.5511841674</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25380.44652499798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44184.20358161661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19288.71354054619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>133486.011152275</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +3633,7 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2116,11 +3645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8624.852386419039</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25659.96936069367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44181.04719011356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19521.41495617239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>137229.4595308115</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +3683,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2142,11 +3695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8908.766481786806</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25962.13683537567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>44067.02970923555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19712.63223207356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>140920.4477740305</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2168,11 +3745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9366.72494839102</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26279.78753486255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43930.71598914109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>19914.61023689308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>144741.9185749783</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +3783,7 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2194,11 +3795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9949.883282733688</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26572.06762577059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43806.35200366278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20120.16523152982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>148581.7948576058</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2220,11 +3845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10606.55818739538</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26807.00743233685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43717.41937825102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20310.39187766743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>152279.2782184839</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +3883,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2246,11 +3895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.01266987142706619</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.4227294082566803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.03263199763974096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.152160814802251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.6741396112421373</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2272,11 +3945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11287.36262227387</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>26989.78122660469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43690.1897742486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20487.16412332424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>155839.5581165787</v>
       </c>
     </row>
   </sheetData>
@@ -2286,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2298,11 +3995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>11948.52264432999</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27152.53985025495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43731.72361055102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20666.23299169485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>159398.5648271372</v>
       </c>
     </row>
   </sheetData>
@@ -2312,7 +4033,7 @@
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,11 +4045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12553.63171846985</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27325.71875903965</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43816.1368296947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20858.17356636645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>163055.3874271504</v>
       </c>
     </row>
   </sheetData>
@@ -2338,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2350,11 +4095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13074.44803329874</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27523.91906819889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43899.32667312222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21062.73198298417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>166812.7840202944</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +4133,7 @@
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2376,11 +4145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13491.22049907663</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27746.59406865317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43938.7829929446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21269.26688698404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>170620.76983593</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +4183,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2402,11 +4195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13792.71174297614</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>27980.73807795761</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43901.44777503672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21456.04118560453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>174411.4545992973</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +4233,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2428,11 +4245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13975.88006903667</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28209.08343345915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43776.73101142095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21604.14395541875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>178136.4679981742</v>
       </c>
     </row>
   </sheetData>
@@ -2442,7 +4283,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2454,11 +4295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14045.18126234727</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28421.86424314955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43591.80608511429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21718.63107816984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>181803.194822435</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,11 +4345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14011.56113115816</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28619.34373730234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43399.83567644073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21825.95752729633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>185458.0594969179</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2506,11 +4395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13891.28563542917</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28804.26144292349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43244.62647247042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21949.68695378564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>189142.2210855087</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +4433,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2532,11 +4445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.03441814046377425</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1.219273613319103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.09247252825637495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4038394434289195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.81124921684911</v>
       </c>
     </row>
   </sheetData>
@@ -2546,7 +4483,7 @@
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2558,11 +4495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13704.73583930225</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28975.51619357495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43134.94098316096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22092.80034485993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>192873.7144988214</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +4533,7 @@
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2584,11 +4545,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13475.21102013254</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29132.06549991159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>43051.66023428043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22243.67986915183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>196656.0618094086</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +4583,7 @@
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2610,11 +4595,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13227.69001563377</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29281.28161462264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42975.17977180419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22394.39450665385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>200484.9332353021</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +4633,7 @@
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2636,11 +4645,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12987.45239047803</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29437.20413066134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42897.82689715209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22545.99152631598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>204341.9199028253</v>
       </c>
     </row>
   </sheetData>
@@ -2650,7 +4683,7 @@
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2662,11 +4695,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12778.48519254672</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29608.93082550628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42813.82298216302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22699.63249157203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>208200.060633393</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2688,11 +4745,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12621.702143512</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29792.38682701092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42708.60795180999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22849.8402249765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>212046.2140897815</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +4783,7 @@
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2714,11 +4795,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12533.15150183179</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29974.94970701439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42566.84399363794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>22988.33726338872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>215884.8233688291</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2740,11 +4845,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12522.51467397401</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30147.56462319091</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42390.51740769766</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23112.9567728091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>219717.3206202643</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +4883,7 @@
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2766,11 +4895,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12592.22962875767</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30309.77898893879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42200.49047917726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23229.79941814827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>223533.4277404809</v>
       </c>
     </row>
   </sheetData>
@@ -2780,7 +4933,7 @@
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2792,11 +4945,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12737.47306873557</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30464.57062137896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>42019.11873639609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23347.11140189743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>227325.8390756657</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2818,11 +4995,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.08325733419647428</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.063270646400837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.2199882709223015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.9113277174858591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4.094062975561748</v>
       </c>
     </row>
   </sheetData>
@@ -2832,7 +5033,7 @@
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2844,11 +5045,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>12947.03417663993</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30612.06974084588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41854.18147893862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23468.74735210544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>231104.8676035499</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +5083,7 @@
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2870,11 +5095,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13204.89956538099</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30750.53439344609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41699.46258955867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23593.46462512937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>234890.7363679731</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +5133,7 @@
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2896,11 +5145,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13492.22856127589</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>30882.31584628022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41547.7972665951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23719.15039756302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>238692.2593923561</v>
       </c>
     </row>
   </sheetData>
@@ -2910,7 +5183,7 @@
 
 <file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2922,11 +5195,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13789.3765908686</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31014.77800480464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41398.49461150321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23845.60825575156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>242499.9881568738</v>
       </c>
     </row>
   </sheetData>
@@ -2936,7 +5233,7 @@
 
 <file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2948,11 +5245,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14077.69935186095</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31153.79364637788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41251.97568972317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>23972.70735933327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>246294.9981602696</v>
       </c>
     </row>
   </sheetData>
@@ -2962,7 +5283,7 @@
 
 <file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2974,11 +5295,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14340.98389317268</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31297.51540921653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>41101.94302722945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24097.41023207543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>250058.5283869234</v>
       </c>
     </row>
   </sheetData>
@@ -2988,7 +5333,7 @@
 
 <file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3000,11 +5345,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14566.45477847524</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31438.46466351039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40938.3983799856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24215.13862470377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>253779.5521428351</v>
       </c>
     </row>
   </sheetData>
@@ -3014,7 +5383,7 @@
 
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3026,11 +5395,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14745.36411120055</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31571.66621550543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40758.68320847194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24324.59203372815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>257460.0115277398</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +5433,7 @@
 
 <file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3052,11 +5445,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14873.20252932017</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31698.21259504038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40570.79836441678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24429.30979053029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>261111.6235365868</v>
       </c>
     </row>
   </sheetData>
@@ -3066,7 +5483,7 @@
 
 <file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3078,11 +5495,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14949.57909910845</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>31820.81094206975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>40385.87466121997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>24533.91308721703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>264739.9259285221</v>
       </c>
     </row>
   </sheetData>
